--- a/test.xlsx
+++ b/test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hub\howtestcore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{649D1B58-9F7A-4E23-85E7-93A0358B40C6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3E508B6A-7675-4D5F-A010-AE5FCB068A29}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7170" xr2:uid="{EFF09413-38EC-4F55-A169-BB0DF1E873E7}"/>
   </bookViews>
@@ -49,10 +49,6 @@
     <t>BANK_ACCT</t>
   </si>
   <si>
-    <t>测试场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -520,9 +516,6 @@
     <t>62166192828625423051111</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
     <t>1100876539</t>
   </si>
   <si>
@@ -606,6 +599,14 @@
   </si>
   <si>
     <t>090000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCENARIO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1094,8 +1095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8151F283-2F1B-4F95-B1E9-5D1EA7E6C78E}">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1140,948 +1141,948 @@
         <v>6</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>7</v>
+        <v>185</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="I2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="I3" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="I4" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="H6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="H7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="N7" s="2"/>
     </row>
     <row r="8" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="I8" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="H9" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="N9" s="2"/>
     </row>
     <row r="10" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="H10" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="N10" s="2"/>
     </row>
     <row r="11" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="H11" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="N11" s="2"/>
     </row>
     <row r="12" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="I12" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="M12" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="N12" s="2"/>
     </row>
     <row r="13" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="H13" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="H14" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I14" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="M14" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="N14" s="2"/>
     </row>
     <row r="15" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I15" s="2" t="s">
+      <c r="B17" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K17" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="M17" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G16" s="4" t="s">
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="I16" s="2" t="s">
+      <c r="I18" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="K18" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="M18" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="G17" s="4" t="s">
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="I17" s="2" t="s">
+      <c r="B19" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="K19" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="M19" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="N19" s="2"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="H20" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="K20" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L20" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="M20" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="N20" s="2"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="H21" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="K21" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L21" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="M21" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="H22" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="J22" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="K22" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L22" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="M22" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="H23" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="J23" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L23" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="M23" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="N23" s="2"/>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hub\howtestcore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3E508B6A-7675-4D5F-A010-AE5FCB068A29}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{84535C4B-5B2E-46B4-BE12-5AAC284CDCC0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7170" xr2:uid="{EFF09413-38EC-4F55-A169-BB0DF1E873E7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="188">
   <si>
     <t xml:space="preserve">   ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -608,13 +608,20 @@
   <si>
     <t>SCENARIO</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEST_RESULT2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEST_RESULT3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -638,6 +645,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.3"/>
+      <color rgb="FF6A8759"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -689,7 +702,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -709,6 +722,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1093,10 +1109,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8151F283-2F1B-4F95-B1E9-5D1EA7E6C78E}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1115,10 +1131,11 @@
     <col min="12" max="12" width="11.25" style="3" customWidth="1"/>
     <col min="13" max="13" width="10.5" style="3" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="13.125" style="3" customWidth="1" collapsed="1"/>
-    <col min="15" max="16384" width="9" style="3" collapsed="1"/>
+    <col min="15" max="15" width="15.125" style="3" customWidth="1" collapsed="1"/>
+    <col min="16" max="16384" width="9" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1161,8 +1178,14 @@
       <c r="N1" s="6" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O1" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>184</v>
       </c>
@@ -1204,7 +1227,7 @@
       </c>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1246,7 +1269,7 @@
       </c>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1288,7 +1311,7 @@
       </c>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -1330,7 +1353,7 @@
       </c>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -1372,7 +1395,7 @@
       </c>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -1414,7 +1437,7 @@
       </c>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
@@ -1456,7 +1479,7 @@
       </c>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>52</v>
       </c>
@@ -1498,7 +1521,7 @@
       </c>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>60</v>
       </c>
@@ -1540,7 +1563,7 @@
       </c>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>67</v>
       </c>
@@ -1582,7 +1605,7 @@
       </c>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>74</v>
       </c>
@@ -1624,7 +1647,7 @@
       </c>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>81</v>
       </c>
@@ -1666,7 +1689,7 @@
       </c>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>89</v>
       </c>
@@ -1708,7 +1731,7 @@
       </c>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>96</v>
       </c>
@@ -1750,7 +1773,7 @@
       </c>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>103</v>
       </c>
